--- a/biology/Médecine/Jean-François_Payen_(né_en_1957)/Jean-François_Payen_(né_en_1957).xlsx
+++ b/biology/Médecine/Jean-François_Payen_(né_en_1957)/Jean-François_Payen_(né_en_1957).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Payen_(n%C3%A9_en_1957)</t>
+          <t>Jean-François_Payen_(né_en_1957)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Payen de La Garanderie, dit Jean-François Payen, né en 1957 à Nantes, est un médecin français spécialisé en anesthésie et réanimation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Payen_(n%C3%A9_en_1957)</t>
+          <t>Jean-François_Payen_(né_en_1957)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-François Payen de La Garanderie est né à Nantes[1].
-En 2001, il invente et publie l'echelle BPS (Behavioral Pain Scale) ; échelle d'évaluation de la douleur chez les malades sédatés artificiellement[2].
-À partir de 2011, il dirige le service anesthésie-réanimation du centre hospitalier de Grenoble[1].
-Il s'occupe pendant cinq mois et demi de Michael Schumacher, victime d'un grave accident de ski le 29 décembre 2013 à Méribel[3].
-En 2017, il est récompensé du prix des Gueules cassées, remis par la Fondation du même nom[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Payen de La Garanderie est né à Nantes.
+En 2001, il invente et publie l'echelle BPS (Behavioral Pain Scale) ; échelle d'évaluation de la douleur chez les malades sédatés artificiellement.
+À partir de 2011, il dirige le service anesthésie-réanimation du centre hospitalier de Grenoble.
+Il s'occupe pendant cinq mois et demi de Michael Schumacher, victime d'un grave accident de ski le 29 décembre 2013 à Méribel.
+En 2017, il est récompensé du prix des Gueules cassées, remis par la Fondation du même nom.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Payen_(n%C3%A9_en_1957)</t>
+          <t>Jean-François_Payen_(né_en_1957)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Titres et diplômes universitaires[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Doctorat en médecine (1987)
 Assistant des hôpitaux - Chef de clinique à la faculté (1987)
